--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1693.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1693.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6285300646327914</v>
+        <v>0.57369065284729</v>
       </c>
       <c r="B1">
-        <v>2.778949448032325</v>
+        <v>1.359740257263184</v>
       </c>
       <c r="C1">
-        <v>2.763920240739588</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.925980571038356</v>
+        <v>1.699376583099365</v>
       </c>
       <c r="E1">
-        <v>1.63229112539211</v>
+        <v>1.479905128479004</v>
       </c>
     </row>
   </sheetData>
